--- a/Docs/Test Cases_Expense manager application.xlsx
+++ b/Docs/Test Cases_Expense manager application.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>SL. No.</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Verify that the application does not accept any other choice apart from 1,2 &amp; 3.</t>
+  </si>
+  <si>
+    <t>Apllication should not accept any other choice apart from 1,2 &amp; 3 and should be showing an error message to the user.</t>
+  </si>
+  <si>
+    <t>Apllication does not accept any other choice apart from 1,2 &amp; 3 and shows an error message as "Please Enter a Valid Choice!".</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H26"/>
+  <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,9 +525,9 @@
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
     <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
@@ -628,7 +637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30">
+    <row r="8" spans="2:8" ht="36" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -649,22 +658,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="45">
+    <row r="9" spans="2:8" ht="54" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>35</v>
@@ -676,16 +685,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>35</v>
@@ -697,50 +706,62 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="33" customHeight="1">
+    <row r="12" spans="2:8" ht="45">
       <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="3"/>
+    <row r="13" spans="2:8" ht="33" customHeight="1">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="3"/>
@@ -858,6 +879,15 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
